--- a/Power BI/Competitors.xlsx
+++ b/Power BI/Competitors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coursefiles\SQL\SQL 2016\10989B\DDLS Labfiles\Lab03\Starter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard.Boxall\OneDrive\Student Files\20778 Power BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_90DE5C5813F30494FC360CB020A7D71E055EA1A8" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{8F346400-F7AD-4BE0-95AC-FD82FC6EF6A7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,30 +401,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
@@ -434,7 +435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,9 +464,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B3" s="1">
         <v>1309047.1978</v>
@@ -495,9 +496,9 @@
         <v>8475.1200000000008</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B4" s="1">
         <v>2154284.8835</v>
@@ -527,9 +528,9 @@
         <v>19982.78</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B5" s="1">
         <v>2947789.4830999998</v>
@@ -559,9 +560,9 @@
         <v>25985.48</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B6" s="1">
         <v>81309.16</v>
@@ -598,22 +599,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
@@ -631,7 +632,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -657,9 +658,9 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B3" s="1">
         <v>309047.19780000002</v>
@@ -682,9 +683,9 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B4" s="1">
         <v>154284.8835</v>
@@ -707,9 +708,9 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B5" s="1">
         <v>947789.48309999995</v>
@@ -732,9 +733,9 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B6" s="1">
         <v>1309.1600000000001</v>
